--- a/results/acl-pretrain/xlm-roberta/results_pos_postprocessed.xlsx
+++ b/results/acl-pretrain/xlm-roberta/results_pos_postprocessed.xlsx
@@ -624,52 +624,52 @@
         <v>2</v>
       </c>
       <c r="C2" s="8">
-        <v>0.9042803712425543</v>
+        <v>0.9787187739463602</v>
       </c>
       <c r="D2" s="9">
-        <v>0.8226439488387126</v>
+        <v>0.810360153256705</v>
       </c>
       <c r="E2" s="9">
-        <v>0.7632636099182712</v>
+        <v>0.7337164750957854</v>
       </c>
       <c r="F2" s="9">
-        <v>0.8141478505794894</v>
+        <v>0.8548934865900383</v>
       </c>
       <c r="G2" s="9">
-        <v>0.8193193886503209</v>
+        <v>0.8065409961685823</v>
       </c>
       <c r="H2" s="9">
-        <v>0.6413168952301797</v>
+        <v>0.6467310344827586</v>
       </c>
       <c r="I2" s="9">
-        <v>0.5425959274137693</v>
+        <v>0.557391570881226</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="9">
-        <v>0.752274091517754</v>
+        <v>0.7021180076628353</v>
       </c>
       <c r="L2" s="9">
-        <v>0.6939557648797156</v>
+        <v>0.6832613026819924</v>
       </c>
       <c r="M2" s="9">
-        <v>0.6444105831832664</v>
+        <v>0.6263785440613027</v>
       </c>
       <c r="N2" s="9">
-        <v>0.598051438334026</v>
+        <v>0.5810298850574712</v>
       </c>
       <c r="O2" s="9">
-        <v>0.5526157824260054</v>
+        <v>0.5382283524904214</v>
       </c>
       <c r="P2" s="9">
-        <v>0.6839820843145403</v>
+        <v>0.6748842911877395</v>
       </c>
       <c r="Q2" s="9">
-        <v>0.6508288313247449</v>
+        <v>0.6471846743295019</v>
       </c>
       <c r="R2" s="9">
-        <v>0.7581382462945007</v>
+        <v>0.7383662835249042</v>
       </c>
       <c r="S2" s="9">
         <v>0.1961952255621739</v>
@@ -683,52 +683,52 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>0.8137841023913776</v>
+        <v>0.8256851196000076</v>
       </c>
       <c r="D3" s="8">
-        <v>0.8960929605927922</v>
+        <v>0.9869131266453287</v>
       </c>
       <c r="E3" s="9">
-        <v>0.8161839003031324</v>
+        <v>0.8633359216681502</v>
       </c>
       <c r="F3" s="9">
-        <v>0.8508336140114516</v>
+        <v>0.8864983617734513</v>
       </c>
       <c r="G3" s="9">
-        <v>0.7980801616705961</v>
+        <v>0.7844169617999659</v>
       </c>
       <c r="H3" s="9">
-        <v>0.5787302121926574</v>
+        <v>0.5815041381792011</v>
       </c>
       <c r="I3" s="9">
-        <v>0.5846244526776693</v>
+        <v>0.5821480653775497</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="9">
-        <v>0.7593465813405187</v>
+        <v>0.8327115016761046</v>
       </c>
       <c r="L3" s="9">
-        <v>0.5955708992926911</v>
+        <v>0.626048749076722</v>
       </c>
       <c r="M3" s="9">
-        <v>0.5741411249578983</v>
+        <v>0.5896668623700309</v>
       </c>
       <c r="N3" s="9">
-        <v>0.515998652745032</v>
+        <v>0.5204068104770743</v>
       </c>
       <c r="O3" s="9">
-        <v>0.5028629168070057</v>
+        <v>0.4949527471070624</v>
       </c>
       <c r="P3" s="9">
-        <v>0.6033597170764567</v>
+        <v>0.6242684797636409</v>
       </c>
       <c r="Q3" s="9">
-        <v>0.6574604243853149</v>
+        <v>0.6516353856934528</v>
       </c>
       <c r="R3" s="9">
-        <v>0.7649461098012799</v>
+        <v>0.7544175299710233</v>
       </c>
       <c r="S3" s="9">
         <v>0.203014482990906</v>
@@ -766,7 +766,7 @@
         <v>20</v>
       </c>
       <c r="K4" s="9">
-        <v>0.762818544673012</v>
+        <v>0.7619742093951489</v>
       </c>
       <c r="L4" s="9">
         <v>0.7866134479582437</v>
@@ -825,7 +825,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="9">
-        <v>0.8159247146766335</v>
+        <v>0.7897283588066475</v>
       </c>
       <c r="L5" s="9">
         <v>0.7490155509577521</v>
@@ -884,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="9">
-        <v>0.6662699139351768</v>
+        <v>0.6918146859549533</v>
       </c>
       <c r="L6" s="9">
         <v>0.6705731550997985</v>
@@ -919,52 +919,52 @@
         <v>7</v>
       </c>
       <c r="C7" s="9">
-        <v>0.5361662386177912</v>
+        <v>0.5348817848817848</v>
       </c>
       <c r="D7" s="9">
-        <v>0.4161568993696008</v>
+        <v>0.4408924408924409</v>
       </c>
       <c r="E7" s="9">
-        <v>0.3770254494513192</v>
+        <v>0.3677156177156177</v>
       </c>
       <c r="F7" s="9">
-        <v>0.6134485173943498</v>
+        <v>0.6205461205461206</v>
       </c>
       <c r="G7" s="9">
-        <v>0.6109269203829092</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="H7" s="8">
-        <v>0.9408825589540042</v>
+        <v>0.9638694638694638</v>
       </c>
       <c r="I7" s="9">
-        <v>0.4914779360261499</v>
+        <v>0.5282217782217782</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="9">
-        <v>0.6161568993696007</v>
+        <v>0.571012321012321</v>
       </c>
       <c r="L7" s="9">
-        <v>0.5790333878122811</v>
+        <v>0.5994838494838495</v>
       </c>
       <c r="M7" s="9">
-        <v>0.5583469530702778</v>
+        <v>0.5815850815850816</v>
       </c>
       <c r="N7" s="9">
-        <v>0.6368900303525566</v>
+        <v>0.6424408924408924</v>
       </c>
       <c r="O7" s="9">
-        <v>0.6375904739668457</v>
+        <v>0.6506826506826506</v>
       </c>
       <c r="P7" s="9">
-        <v>0.5053934158300257</v>
+        <v>0.5231435231435232</v>
       </c>
       <c r="Q7" s="9">
-        <v>0.5317300957272939</v>
+        <v>0.5092407592407593</v>
       </c>
       <c r="R7" s="9">
-        <v>0.6628531403222041</v>
+        <v>0.6644189144189144</v>
       </c>
       <c r="S7" s="9">
         <v>0.2526266635535839</v>
@@ -1002,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="9">
-        <v>0.6517774989544124</v>
+        <v>0.6311166875784191</v>
       </c>
       <c r="L8" s="9">
         <v>0.5692179004600586</v>
@@ -1061,7 +1061,7 @@
         <v>20</v>
       </c>
       <c r="K9" s="9">
-        <v>0.693083057073739</v>
+        <v>0.6224800645103485</v>
       </c>
       <c r="L9" s="9">
         <v>0.6097123913627811</v>
@@ -1096,52 +1096,52 @@
         <v>10</v>
       </c>
       <c r="C10" s="9">
-        <v>0.7060957178841309</v>
+        <v>0.6864176570458405</v>
       </c>
       <c r="D10" s="9">
-        <v>0.8278589420654912</v>
+        <v>0.8378607809847198</v>
       </c>
       <c r="E10" s="9">
-        <v>0.7712342569269521</v>
+        <v>0.7747877758913413</v>
       </c>
       <c r="F10" s="9">
-        <v>0.8329974811083123</v>
+        <v>0.8368421052631579</v>
       </c>
       <c r="G10" s="9">
-        <v>0.7297229219143577</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="H10" s="9">
-        <v>0.6760705289672544</v>
+        <v>0.6874363327674023</v>
       </c>
       <c r="I10" s="9">
-        <v>0.601360201511335</v>
+        <v>0.5953310696095077</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="8">
-        <v>0.9090176322418136</v>
+        <v>0.9286078098471986</v>
       </c>
       <c r="L10" s="9">
-        <v>0.7426700251889169</v>
+        <v>0.749660441426146</v>
       </c>
       <c r="M10" s="9">
-        <v>0.6934508816120907</v>
+        <v>0.6971986417657046</v>
       </c>
       <c r="N10" s="9">
-        <v>0.6066498740554156</v>
+        <v>0.6166383701188455</v>
       </c>
       <c r="O10" s="9">
-        <v>0.5818639798488665</v>
+        <v>0.582258064516129</v>
       </c>
       <c r="P10" s="9">
-        <v>0.6738539042821159</v>
+        <v>0.6729202037351443</v>
       </c>
       <c r="Q10" s="9">
-        <v>0.6845340050377834</v>
+        <v>0.6131578947368421</v>
       </c>
       <c r="R10" s="9">
-        <v>0.7901259445843829</v>
+        <v>0.7716468590831919</v>
       </c>
       <c r="S10" s="9">
         <v>0.2358186397984887</v>
@@ -1155,52 +1155,52 @@
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>0.8009227074511787</v>
+        <v>0.77695730379627</v>
       </c>
       <c r="D11" s="9">
-        <v>0.8674714023889275</v>
+        <v>0.851415317618101</v>
       </c>
       <c r="E11" s="9">
-        <v>0.7777918220312203</v>
+        <v>0.7652182145223895</v>
       </c>
       <c r="F11" s="9">
-        <v>0.8564747519433735</v>
+        <v>0.8307299062766259</v>
       </c>
       <c r="G11" s="9">
-        <v>0.8094545914175567</v>
+        <v>0.8305879011644419</v>
       </c>
       <c r="H11" s="9">
-        <v>0.7335524236870379</v>
+        <v>0.7406986651519455</v>
       </c>
       <c r="I11" s="9">
-        <v>0.5896479807874613</v>
+        <v>0.5973681719208558</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="9">
-        <v>0.8070530240788725</v>
+        <v>0.7626147874656821</v>
       </c>
       <c r="L11" s="8">
-        <v>0.9735195601339822</v>
+        <v>0.9675754993846445</v>
       </c>
       <c r="M11" s="9">
-        <v>0.8136257346900082</v>
+        <v>0.8019975385780554</v>
       </c>
       <c r="N11" s="9">
-        <v>0.6806547430954939</v>
+        <v>0.6774590551926536</v>
       </c>
       <c r="O11" s="9">
-        <v>0.7283700941667194</v>
+        <v>0.7219066553062576</v>
       </c>
       <c r="P11" s="9">
-        <v>0.808380206029198</v>
+        <v>0.7824008330966582</v>
       </c>
       <c r="Q11" s="9">
-        <v>0.6688997029640397</v>
+        <v>0.6713055003313453</v>
       </c>
       <c r="R11" s="9">
-        <v>0.8402325728370094</v>
+        <v>0.8437943765975575</v>
       </c>
       <c r="S11" s="9">
         <v>0.266889970296404</v>
@@ -1238,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="K12" s="9">
-        <v>0.7226142610978912</v>
+        <v>0.6957003364240584</v>
       </c>
       <c r="L12" s="9">
         <v>0.7240091901206204</v>
@@ -1297,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="9">
-        <v>0.5734682366213072</v>
+        <v>0.5687090178382571</v>
       </c>
       <c r="L13" s="9">
         <v>0.585383910315166</v>
@@ -1332,52 +1332,52 @@
         <v>14</v>
       </c>
       <c r="C14" s="9">
-        <v>0.4362152244729846</v>
+        <v>0.3985592357685381</v>
       </c>
       <c r="D14" s="9">
-        <v>0.3221627288725802</v>
+        <v>0.3056142823584684</v>
       </c>
       <c r="E14" s="9">
-        <v>0.2988355112891751</v>
+        <v>0.2662281732049174</v>
       </c>
       <c r="F14" s="9">
-        <v>0.4429175871494365</v>
+        <v>0.4128885756792733</v>
       </c>
       <c r="G14" s="9">
-        <v>0.4474107911783428</v>
+        <v>0.4604964372406233</v>
       </c>
       <c r="H14" s="9">
-        <v>0.5619500505485453</v>
+        <v>0.5389554459321901</v>
       </c>
       <c r="I14" s="9">
-        <v>0.3615905942262328</v>
+        <v>0.3994205622112599</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="9">
-        <v>0.4402965514659078</v>
+        <v>0.3534570511314697</v>
       </c>
       <c r="L14" s="9">
-        <v>0.4651963904594301</v>
+        <v>0.4625322997416021</v>
       </c>
       <c r="M14" s="9">
-        <v>0.5471224772531545</v>
+        <v>0.5369978858350951</v>
       </c>
       <c r="N14" s="9">
-        <v>0.582132025311716</v>
+        <v>0.58656330749354</v>
       </c>
       <c r="O14" s="8">
-        <v>0.9370951435953121</v>
+        <v>0.9791715605669093</v>
       </c>
       <c r="P14" s="9">
-        <v>0.5462612798142809</v>
+        <v>0.5359799545846058</v>
       </c>
       <c r="Q14" s="9">
-        <v>0.3503201407870596</v>
+        <v>0.3555712160363323</v>
       </c>
       <c r="R14" s="9">
-        <v>0.4708503388624705</v>
+        <v>0.4778795709028267</v>
       </c>
       <c r="S14" s="9">
         <v>0.2425955741940315</v>
@@ -1415,7 +1415,7 @@
         <v>20</v>
       </c>
       <c r="K15" s="9">
-        <v>0.686268773161693</v>
+        <v>0.6893895065340355</v>
       </c>
       <c r="L15" s="9">
         <v>0.7268383070021455</v>
@@ -1474,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="K16" s="9">
-        <v>0.6822442200809025</v>
+        <v>0.6246587956720492</v>
       </c>
       <c r="L16" s="9">
         <v>0.5454993915874634</v>
@@ -1533,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="9">
-        <v>0.6521767853603753</v>
+        <v>0.6235713813833652</v>
       </c>
       <c r="L17" s="9">
         <v>0.5157560943383762</v>
@@ -1566,52 +1566,52 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="9">
-        <v>0.6558955568096697</v>
+        <v>0.6511833641613349</v>
       </c>
       <c r="D19" s="9">
-        <v>0.688210833731701</v>
+        <v>0.6875341039700426</v>
       </c>
       <c r="E19" s="9">
-        <v>0.6417007572577833</v>
+        <v>0.6394785991363253</v>
       </c>
       <c r="F19" s="9">
-        <v>0.6915923622352813</v>
+        <v>0.6936976124980982</v>
       </c>
       <c r="G19" s="9">
-        <v>0.6881710603641257</v>
+        <v>0.6864967638709107</v>
       </c>
       <c r="H19" s="9">
-        <v>0.6231744708348571</v>
+        <v>0.6234215045607119</v>
       </c>
       <c r="I19" s="9">
-        <v>0.546705687607609</v>
+        <v>0.5526112959795796</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="9">
-        <v>0.6854515435605197</v>
+        <v>0.6614037808697132</v>
       </c>
       <c r="L19" s="9">
-        <v>0.6372697204556962</v>
+        <v>0.6402403987741813</v>
       </c>
       <c r="M19" s="9">
-        <v>0.6215733343587869</v>
+        <v>0.6217551209873585</v>
       </c>
       <c r="N19" s="9">
-        <v>0.5718678117626287</v>
+        <v>0.5721452488883779</v>
       </c>
       <c r="O19" s="9">
-        <v>0.5730803188429937</v>
+        <v>0.572062000368799</v>
       </c>
       <c r="P19" s="9">
-        <v>0.6138332134616487</v>
+        <v>0.613324325339295</v>
       </c>
       <c r="Q19" s="9">
-        <v>0.6122294091465037</v>
+        <v>0.6058508911559701</v>
       </c>
       <c r="R19" s="8">
-        <v>0.7152108162096061</v>
+        <v>0.7127692949960444</v>
       </c>
       <c r="S19" s="9">
         <v>0.2632533858126154</v>
@@ -1680,52 +1680,52 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="9">
-        <v>0.8325930638518557</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.8470194614349639</v>
+        <v>0.8355683181540132</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.843948512539462</v>
       </c>
       <c r="E24" s="9">
-        <v>0.7856812084987286</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0.825127869973535</v>
+        <v>0.7900824301343616</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.8442304659166722</v>
       </c>
       <c r="G24" s="9">
-        <v>0.8102775010492738</v>
+        <v>0.8036671029611815</v>
       </c>
       <c r="H24" s="9">
-        <v>0.6334619978764481</v>
+        <v>0.6350996109242726</v>
       </c>
       <c r="I24" s="9">
-        <v>0.562487841954412</v>
+        <v>0.5649516931878795</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="9">
-        <v>0.751326769228619</v>
+        <v>0.7556693526991379</v>
       </c>
       <c r="L24" s="9">
-        <v>0.6991457636376401</v>
+        <v>0.7031024411549016</v>
       </c>
       <c r="M24" s="9">
-        <v>0.6427282091181838</v>
+        <v>0.6422269487762176</v>
       </c>
       <c r="N24" s="9">
-        <v>0.5719937716489643</v>
+        <v>0.5694710925400618</v>
       </c>
       <c r="O24" s="9">
-        <v>0.5414556012017099</v>
+        <v>0.5369960812746044</v>
       </c>
       <c r="P24" s="9">
-        <v>0.666246727420569</v>
+        <v>0.6686089213326457</v>
       </c>
       <c r="Q24" s="9">
-        <v>0.6876082197947366</v>
+        <v>0.6857143806573156</v>
       </c>
       <c r="R24" s="9">
-        <v>0.7593664626693892</v>
+        <v>0.7533063541494186</v>
       </c>
       <c r="S24" s="9">
         <v>0.208925063943646</v>
@@ -1737,52 +1737,52 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="9">
-        <v>0.5667258466859062</v>
+        <v>0.5614852180423321</v>
       </c>
       <c r="D25" s="9">
-        <v>0.6026758704211126</v>
+        <v>0.6113602155316298</v>
       </c>
       <c r="E25" s="9">
-        <v>0.5774305416329826</v>
+        <v>0.5759914634401546</v>
       </c>
       <c r="F25" s="9">
-        <v>0.6638540597652687</v>
+        <v>0.6665896165919227</v>
       </c>
       <c r="G25" s="9">
-        <v>0.6354619383781994</v>
+        <v>0.6272389856644431</v>
       </c>
       <c r="H25" s="9">
-        <v>0.6454576118668113</v>
+        <v>0.6492462131335274</v>
       </c>
       <c r="I25" s="9">
-        <v>0.5557347445884738</v>
+        <v>0.5659729813530742</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="9">
-        <v>0.653672485132584</v>
+        <v>0.6082030243670296</v>
       </c>
       <c r="L25" s="9">
-        <v>0.6251584262060095</v>
+        <v>0.6320186456832088</v>
       </c>
       <c r="M25" s="9">
-        <v>0.6027825378814473</v>
+        <v>0.6095290100485518</v>
       </c>
       <c r="N25" s="9">
-        <v>0.5705756069511616</v>
+        <v>0.574460446489103</v>
       </c>
       <c r="O25" s="9">
-        <v>0.5725099707076005</v>
+        <v>0.5758815360533673</v>
       </c>
       <c r="P25" s="9">
-        <v>0.5531110611478107</v>
+        <v>0.5573151628394422</v>
       </c>
       <c r="Q25" s="9">
-        <v>0.5999154554776398</v>
+        <v>0.5764490937807709</v>
       </c>
       <c r="R25" s="8">
-        <v>0.696914907246907</v>
+        <v>0.6926865793957868</v>
       </c>
       <c r="S25" s="9">
         <v>0.2701512963828191</v>
@@ -1794,52 +1794,52 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="9">
-        <v>0.6185194446461195</v>
+        <v>0.6061951661742485</v>
       </c>
       <c r="D26" s="9">
-        <v>0.6355314498947261</v>
+        <v>0.6290105436377385</v>
       </c>
       <c r="E26" s="9">
-        <v>0.5887719952111737</v>
+        <v>0.579735806092556</v>
       </c>
       <c r="F26" s="9">
-        <v>0.6407431094343677</v>
+        <v>0.6295883380069857</v>
       </c>
       <c r="G26" s="9">
-        <v>0.639801380355946</v>
+        <v>0.6466451715177792</v>
       </c>
       <c r="H26" s="9">
-        <v>0.6454604597893673</v>
+        <v>0.6422907871590777</v>
       </c>
       <c r="I26" s="9">
-        <v>0.536906103116229</v>
+        <v>0.5460161349399134</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="9">
-        <v>0.6459401692851343</v>
+        <v>0.6139741398787006</v>
       </c>
       <c r="L26" s="9">
-        <v>0.6253569494743405</v>
+        <v>0.6246909267948835</v>
       </c>
       <c r="M26" s="9">
-        <v>0.6720803469474519</v>
+        <v>0.6666421500649489</v>
       </c>
       <c r="N26" s="9">
-        <v>0.6276629337759644</v>
+        <v>0.6279718323457103</v>
       </c>
       <c r="O26" s="8">
-        <v>0.6843939037669884</v>
+        <v>0.6827780440518729</v>
       </c>
       <c r="P26" s="9">
-        <v>0.6587114496840005</v>
+        <v>0.6496462751434467</v>
       </c>
       <c r="Q26" s="9">
-        <v>0.5334404357578727</v>
+        <v>0.5349718102811883</v>
       </c>
       <c r="R26" s="9">
-        <v>0.6673238585635877</v>
+        <v>0.6694420657237685</v>
       </c>
       <c r="S26" s="9">
         <v>0.3230802477871418</v>
@@ -1875,7 +1875,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="9">
-        <v>0.6672105027206389</v>
+        <v>0.6241150885277071</v>
       </c>
       <c r="L27" s="9">
         <v>0.5306277429629198</v>
@@ -1908,52 +1908,52 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="9">
-        <v>0.6480296496413955</v>
+        <v>0.6443822364380736</v>
       </c>
       <c r="D29" s="9">
-        <v>0.6896471865723982</v>
+        <v>0.6894203090619051</v>
       </c>
       <c r="E29" s="9">
-        <v>0.6416214841212259</v>
+        <v>0.6401029727022728</v>
       </c>
       <c r="F29" s="9">
-        <v>0.6842115307185637</v>
+        <v>0.6868823760541658</v>
       </c>
       <c r="G29" s="9">
-        <v>0.688960360692388</v>
+        <v>0.6869629707823841</v>
       </c>
       <c r="H29" s="9">
-        <v>0.6081740097073247</v>
+        <v>0.6087381451283874</v>
       </c>
       <c r="I29" s="9">
-        <v>0.543333591789217</v>
+        <v>0.548786621744655</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="9">
-        <v>0.679537481591744</v>
+        <v>0.6504904013681438</v>
       </c>
       <c r="L29" s="9">
-        <v>0.6200722205702275</v>
+        <v>0.6226099391489784</v>
       </c>
       <c r="M29" s="9">
-        <v>0.6057112022961816</v>
+        <v>0.6059129560318404</v>
       </c>
       <c r="N29" s="9">
-        <v>0.5581948475047859</v>
+        <v>0.558612612254482</v>
       </c>
       <c r="O29" s="9">
-        <v>0.5572537787613248</v>
+        <v>0.5565778251872112</v>
       </c>
       <c r="P29" s="9">
-        <v>0.5981391247499251</v>
+        <v>0.5975144050157137</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.6248750371385492</v>
+        <v>0.6189178305608056</v>
       </c>
       <c r="R29" s="8">
-        <v>0.7326640591178661</v>
+        <v>0.7306215018151387</v>
       </c>
       <c r="S29" s="9">
         <v>0.2594669556304807</v>
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="8">
-        <v>0.8201398209616713</v>
+        <v>0.8234993659411382</v>
       </c>
       <c r="D34" s="9">
-        <v>0.6490922030198264</v>
+        <v>0.6519068856037634</v>
       </c>
       <c r="E34" s="9">
-        <v>0.6243140146054135</v>
+        <v>0.6240810970156861</v>
       </c>
       <c r="F34" s="9">
-        <v>0.7234873412320629</v>
+        <v>0.7195103674033672</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2001,16 +2001,16 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="9">
-        <v>0.6092296513766939</v>
+        <v>0.6085330998540964</v>
       </c>
       <c r="D35" s="9">
-        <v>0.6182882805292897</v>
+        <v>0.6078074062845437</v>
       </c>
       <c r="E35" s="9">
-        <v>0.5848275205788059</v>
+        <v>0.5898409602227346</v>
       </c>
       <c r="F35" s="8">
-        <v>0.6484151813622734</v>
+        <v>0.6345678365882789</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2019,16 +2019,16 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="9">
-        <v>0.6246734759084667</v>
+        <v>0.6182350050858616</v>
       </c>
       <c r="D36" s="9">
-        <v>0.6094355773969102</v>
+        <v>0.600760353992564</v>
       </c>
       <c r="E36" s="8">
-        <v>0.6536411167297491</v>
+        <v>0.6503458456801725</v>
       </c>
       <c r="F36" s="9">
-        <v>0.6003821471607302</v>
+        <v>0.6022069380024784</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2040,7 +2040,7 @@
         <v>0.6279332211499449</v>
       </c>
       <c r="D37" s="9">
-        <v>0.564577383171688</v>
+        <v>0.5502122451073774</v>
       </c>
       <c r="E37" s="9">
         <v>0.4887142871919873</v>
@@ -2055,16 +2055,16 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="9">
-        <v>0.6206121161450352</v>
+        <v>0.6182337753633009</v>
       </c>
       <c r="D39" s="9">
-        <v>0.6077017211961415</v>
+        <v>0.6009598282345683</v>
       </c>
       <c r="E39" s="9">
-        <v>0.5659519407920689</v>
+        <v>0.5675454481434694</v>
       </c>
       <c r="F39" s="8">
-        <v>0.6574282232516888</v>
+        <v>0.6520950473313748</v>
       </c>
     </row>
   </sheetData>

--- a/results/acl-pretrain/xlm-roberta/results_pos_postprocessed.xlsx
+++ b/results/acl-pretrain/xlm-roberta/results_pos_postprocessed.xlsx
@@ -672,7 +672,7 @@
         <v>0.7383662835249042</v>
       </c>
       <c r="S2" s="9">
-        <v>0.1961952255621739</v>
+        <v>0.2118068965517241</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -731,7 +731,7 @@
         <v>0.7544175299710233</v>
       </c>
       <c r="S3" s="9">
-        <v>0.203014482990906</v>
+        <v>0.1805458229957766</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -967,7 +967,7 @@
         <v>0.6644189144189144</v>
       </c>
       <c r="S7" s="9">
-        <v>0.2526266635535839</v>
+        <v>0.2757242757242757</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1144,7 +1144,7 @@
         <v>0.7716468590831919</v>
       </c>
       <c r="S10" s="9">
-        <v>0.2358186397984887</v>
+        <v>0.216893039049236</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1203,7 +1203,7 @@
         <v>0.8437943765975575</v>
       </c>
       <c r="S11" s="9">
-        <v>0.266889970296404</v>
+        <v>0.2738805263656158</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1321,7 +1321,7 @@
         <v>0.5911654797997603</v>
       </c>
       <c r="S13" s="9">
-        <v>0.4873371924746744</v>
+        <v>0.2939434534301629</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1380,7 +1380,7 @@
         <v>0.4778795709028267</v>
       </c>
       <c r="S14" s="9">
-        <v>0.2425955741940315</v>
+        <v>0.2832591683289857</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1439,7 +1439,7 @@
         <v>0.7039204212990052</v>
       </c>
       <c r="S15" s="9">
-        <v>0.3700759993038232</v>
+        <v>0.2672127950068266</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1498,7 +1498,7 @@
         <v>0.8070510079915809</v>
       </c>
       <c r="S16" s="9">
-        <v>0.2688063225868633</v>
+        <v>0.2971181376820615</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1614,7 +1614,7 @@
         <v>0.7127692949960444</v>
       </c>
       <c r="S19" s="9">
-        <v>0.2632533858126154</v>
+        <v>0.2493173885859726</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1728,7 +1728,7 @@
         <v>0.7533063541494186</v>
       </c>
       <c r="S24" s="9">
-        <v>0.208925063943646</v>
+        <v>0.2075536661425302</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1785,7 +1785,7 @@
         <v>0.6926865793957868</v>
       </c>
       <c r="S25" s="9">
-        <v>0.2701512963828191</v>
+        <v>0.2711942992381789</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1842,7 +1842,7 @@
         <v>0.6694420657237685</v>
       </c>
       <c r="S26" s="9">
-        <v>0.3230802477871418</v>
+        <v>0.2733596891596734</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -1899,7 +1899,7 @@
         <v>0.8070510079915809</v>
       </c>
       <c r="S27" s="9">
-        <v>0.2357112144083157</v>
+        <v>0.2498671219559148</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -1956,7 +1956,7 @@
         <v>0.7306215018151387</v>
       </c>
       <c r="S29" s="9">
-        <v>0.2594669556304807</v>
+        <v>0.2504936941240743</v>
       </c>
     </row>
     <row r="33" spans="1:6">
